--- a/biology/Botanique/Sauce_chateaubriand/Sauce_chateaubriand.xlsx
+++ b/biology/Botanique/Sauce_chateaubriand/Sauce_chateaubriand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Une sauce chateaubriand est une sauce associée à l'origine au chateaubriand, spécialité culinaire gastronomique de la cuisine française, à base de fond brun, vin blanc, beurre, échalote et bouquet garni, du nom de l'écrivain français du XIXe siècle François-René de Chateaubriand[1].
+Une sauce chateaubriand est une sauce associée à l'origine au chateaubriand, spécialité culinaire gastronomique de la cuisine française, à base de fond brun, vin blanc, beurre, échalote et bouquet garni, du nom de l'écrivain français du XIXe siècle François-René de Chateaubriand.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grillade de bœuf à la Chateaubriand ou steak chateaubriand est une recette créée en 1822, selon le Larousse gastronomique, par Montmireil, chef-cuisinier personnel de l'écrivain François-René de Chateaubriand, alors qu'il est ambassadeur de France à Londres en Angleterre. Cette pièce de viande de bœuf taillée dans le filet (un des morceaux les plus tendres et fondants) est alors cuite saignante à la façon du rosbif ou du bœuf Wellington de la cuisine anglaise[2] et servie avec cette sauce chateaubriand.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grillade de bœuf à la Chateaubriand ou steak chateaubriand est une recette créée en 1822, selon le Larousse gastronomique, par Montmireil, chef-cuisinier personnel de l'écrivain François-René de Chateaubriand, alors qu'il est ambassadeur de France à Londres en Angleterre. Cette pièce de viande de bœuf taillée dans le filet (un des morceaux les plus tendres et fondants) est alors cuite saignante à la façon du rosbif ou du bœuf Wellington de la cuisine anglaise et servie avec cette sauce chateaubriand.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faire réduire des deux tiers 2 décilitres de vin blanc, additionnés d'une échalote émincée (et éventuellement de champignons émincés), de persil, de thym et d'une feuille de laurier-sauce. Mouiller avec 3 décilitres de fond brun (ou de glace de viande du chateaubriand) puis faire réduire quelques instants, puis passer à l'étamine. Ajouter 100 g de beurre au dernier moment, et de l'estragon haché[3],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faire réduire des deux tiers 2 décilitres de vin blanc, additionnés d'une échalote émincée (et éventuellement de champignons émincés), de persil, de thym et d'une feuille de laurier-sauce. Mouiller avec 3 décilitres de fond brun (ou de glace de viande du chateaubriand) puis faire réduire quelques instants, puis passer à l'étamine. Ajouter 100 g de beurre au dernier moment, et de l'estragon haché.
 </t>
         </is>
       </c>
